--- a/assets/files/CV15.xlsx
+++ b/assets/files/CV15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1998 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>28.643216080402009</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>32.663316582914575</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>8.5427135678391952</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>14.07035175879397</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>16.08040201005025</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>23.80952380952381</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>43.386243386243386</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>21.693121693121693</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>26.288659793814432</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>37.886597938144327</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>6.1855670103092786</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>17.783505154639176</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>11.855670103092784</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>33.734939759036145</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>31.325301204819276</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>8.8353413654618471</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>21.686746987951807</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>4.4176706827309236</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>42.97520661157025</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>29.75206611570248</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>14.87603305785124</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>12.396694214876034</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>36.756756756756758</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>30.810810810810811</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>10.810810810810811</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>18.648648648648649</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>2.9729729729729728</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>35.794183445190157</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>31.991051454138702</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>5.8165548098434003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>17.897091722595079</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>8.5011185682326627</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>447</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>37.037037037037038</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>24.691358024691358</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>3.2921810699588478</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>31.275720164609055</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>243</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>36.231884057971016</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>29.420289855072465</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>4.9275362318840576</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>22.608695652173914</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>6.8115942028985508</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>36.708860759493668</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>44.303797468354432</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>15.189873417721518</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>2.5316455696202533</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>43.165467625899282</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>26.978417266187051</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>19.064748201438849</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>7.5539568345323742</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>3.2374100719424459</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>41.736694677871149</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>30.812324929971989</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>18.207282913165265</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>6.4425770308123251</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>2.8011204481792715</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>34.831460674157306</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>28.089887640449437</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>12.359550561797754</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>11.235955056179776</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>13.48314606741573</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>178</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>46.226415094339622</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>27.358490566037737</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>9.433962264150944</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>12.264150943396226</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>4.716981132075472</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>106</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>39.08450704225352</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>27.816901408450704</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>11.267605633802816</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>11.619718309859154</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>10.211267605633802</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>38.46153846153846</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>11.282051282051283</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>21.025641025641026</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3.0769230769230771</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>26.153846153846153</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>38.028169014084504</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>5.6338028169014081</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>23.004694835680752</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>31.92488262910798</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>38.235294117647058</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>22.058823529411764</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>2.2058823529411766</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>29.166666666666668</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>18.604651162790699</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>27.906976744186046</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>51.162790697674417</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>35.276073619631902</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>22.699386503067483</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>11.042944785276074</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>21.779141104294478</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>9.2024539877300615</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>326</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>23.306233062330623</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>9.7560975609756095</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>25.203252032520325</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>8.4010840108401084</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>42.27642276422764</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>22.764227642276424</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>10.16260162601626</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>10.16260162601626</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>14.634146341463415</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>23.021582733812949</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>41.726618705035975</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>5.0359712230215825</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>23.021582733812949</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>7.1942446043165464</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>35.324675324675326</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>29.61038961038961</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>8.3116883116883109</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>14.805194805194805</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>11.948051948051948</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>67.816091954022994</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>20.689655172413794</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>8.0459770114942533</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>61.428571428571431</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>20.714285714285715</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>7.8571428571428568</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>5.7142857142857144</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>4.2857142857142856</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>280</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>62.942779291553137</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>20.708446866485012</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>6.8119891008174385</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>6.2670299727520433</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>3.2697547683923704</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>37.185929648241206</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>8.5427135678391952</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>22.613065326633166</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>26.633165829145728</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>5.025125628140704</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>22.651933701657459</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>37.569060773480665</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>14.917127071823204</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>24.861878453038674</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>30.263157894736842</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>22.368421052631579</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>18.94736842105263</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>25.789473684210527</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>2.6315789473684212</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>19.555555555555557</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>52.444444444444443</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>21.333333333333332</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>5.333333333333333</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>225</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>51.298701298701296</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>1.2987012987012987</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>11.038961038961039</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>7.7922077922077921</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>23.218997361477573</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>51.978891820580472</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>1.3192612137203166</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>17.150395778364118</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>6.3324538258575194</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>26.839826839826841</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>23.376623376623378</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>12.554112554112555</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>231</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>26.605504587155963</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>28.440366972477065</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>20.183486238532112</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>13.761467889908257</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>11.009174311926605</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>109</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>26.764705882352942</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>25</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>15</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>16.764705882352942</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>16.470588235294116</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>21.13821138211382</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>8.9430894308943092</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>17.073170731707318</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>19.512195121951219</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>38.645418326693225</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>16.733067729083665</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>14.342629482071713</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>16.334661354581673</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>13.944223107569721</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>36.898395721925134</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>12.566844919786096</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>16.577540106951872</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>15.775401069518717</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>10.416666666666666</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>50</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>31.25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>17.065868263473053</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>65.868263473053887</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>0.29940119760479039</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>15.568862275449101</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>1.1976047904191616</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>16.230366492146597</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>63.874345549738223</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>0.26178010471204188</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>17.539267015706805</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>2.0942408376963351</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>49.333333333333336</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>30.666666666666668</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>2.6666666666666665</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>57.627118644067799</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>7.6271186440677967</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>23.305084745762713</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>11.440677966101696</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>54.404145077720209</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>6.2176165803108807</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>26.165803108808291</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>1.0362694300518134</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>12.176165803108809</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>24.010554089709764</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>25.065963060686016</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>7.3878627968337733</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>41.160949868073878</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>2.3746701846965701</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>379</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>24.010554089709764</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>25.065963060686016</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>7.3878627968337733</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>41.160949868073878</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>2.3746701846965701</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>25.641025641025642</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>46.153846153846153</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>31.065088757396449</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>31.65680473372781</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>3.8461538461538463</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>22.189349112426036</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>11.242603550295858</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>338</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>30.50397877984085</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>29.442970822281168</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>3.9787798408488064</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>24.668435013262599</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>11.405835543766578</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>41.618497109826592</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>36.416184971098268</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>5.202312138728324</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>4.0462427745664744</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>12.716763005780347</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>173</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>50.549450549450547</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>38.46153846153846</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.5494505494505495</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>2.7472527472527473</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>182</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>46.197183098591552</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>37.464788732394368</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>6.47887323943662</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>2.2535211267605635</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>7.605633802816901</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>30.303030303030305</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>36.363636363636367</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>13.279132791327914</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>28.726287262872628</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>5.9620596205962055</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>50.948509485094853</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.084010840108401</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>369</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>13.681592039800995</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>28.855721393034827</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>5.9701492537313436</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>49.75124378109453</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>1.7412935323383085</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>24.630541871921181</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>26.600985221674875</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>26.108374384236452</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>12.315270935960591</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>37.777777777777779</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>28.888888888888889</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>7.2222222222222223</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>21.666666666666668</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>4.4444444444444446</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>30.809399477806789</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>27.676240208877285</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>8.8772845953002619</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>24.020887728459531</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>8.6161879895561366</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>38.150289017341038</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>27.745664739884393</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>7.5144508670520231</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>11.560693641618498</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>15.028901734104046</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>36.585365853658537</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>32.68292682926829</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>7.3170731707317076</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>14.634146341463415</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>8.7804878048780495</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>37.301587301587304</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>30.423280423280424</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>13.227513227513228</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>11.640211640211641</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>36.170212765957444</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>31.914893617021278</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>9.0425531914893611</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>14.361702127659575</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>8.5106382978723403</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>35.897435897435898</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>29.743589743589745</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>9.2307692307692299</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>16.923076923076923</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>8.2051282051282044</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>36.031331592689298</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>30.809399477806789</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>9.1383812010443872</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>15.66579634464752</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>8.3550913838120113</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>1.25</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.75</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.625</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>33.125</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>61.25</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>13.114754098360656</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>42.622950819672134</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>27.868852459016395</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>14.754098360655737</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>61</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>3.1496062992125986</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>9.9737532808398957</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>0.78740157480314965</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>32.283464566929133</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>53.805774278215225</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>35.106382978723403</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>18.617021276595743</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>21.276595744680851</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>14.361702127659575</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>10.638297872340425</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>50.520833333333336</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>14.0625</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>17.708333333333332</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>12.5</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>5.208333333333333</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>42.89473684210526</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>16.315789473684209</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>19.473684210526315</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>13.421052631578947</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>25.476603119584055</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>37.435008665511262</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>10.225303292894282</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>15.077989601386482</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>11.785095320623917</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>577</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>21.893491124260354</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>30.917159763313609</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>11.242603550295858</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>25.517751479289942</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>10.428994082840237</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1352</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>22.965266977708659</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>32.866770347330224</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>10.938310005184032</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>22.3950233281493</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>10.834629341627787</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>1929</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>55.072463768115945</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>36.231884057971016</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.8985507246376812</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>61.654135338345867</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>22.556390977443609</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>9.022556390977444</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>4.511278195488722</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>2.255639097744361</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>532</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>60.298507462686565</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>25.373134328358208</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>8.3582089552238799</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>4.1791044776119399</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>1.791044776119403</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>34.586466165413533</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>6.0150375939849621</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>15.037593984962406</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>12.781954887218046</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>38.219895287958117</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>26.178010471204189</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>8.9005235602094235</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>15.183246073298429</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>11.518324607329843</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>191</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>35.493827160493829</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>29.62962962962963</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>7.716049382716049</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>15.123456790123457</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>12.037037037037036</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>39.82683982683983</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>29.004329004329005</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>6.9264069264069263</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>12.554112554112555</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>11.688311688311689</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>231</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>22.131147540983605</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>29.508196721311474</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>9.0163934426229506</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>15.573770491803279</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>23.770491803278688</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>33.711048158640224</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>29.178470254957507</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>7.6487252124645888</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>13.597733711048159</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>15.864022662889518</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="3">
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>38.064516129032256</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>25.161290322580644</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>12.258064516129032</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>10.32258064516129</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>14.193548387096774</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>39.224137931034484</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>35.344827586206897</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>12.931034482758621</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>5.6034482758620694</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>38.759689922480618</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>31.266149870801033</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>9.043927648578812</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>11.886304909560723</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>9.043927648578812</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="3">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>16.216216216216218</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>31.531531531531531</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>6.3063063063063067</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>12.612612612612613</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>35.661764705882355</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>29.044117647058822</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>6.9852941176470589</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>16.544117647058822</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>11.764705882352942</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>34.986945169712797</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>25.326370757180158</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>14.099216710182768</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>13.577023498694517</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>12.010443864229766</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>20</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>35.555555555555557</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>31.388888888888889</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>9.1666666666666661</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>19.444444444444443</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>4.4444444444444446</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>35.200000000000003</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>31.466666666666665</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>9.0666666666666664</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>19.2</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>5.0666666666666664</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="3">
         <v>375</v>
       </c>
     </row>
